--- a/biology/Neurosciences/Ladislav_Tauc/Ladislav_Tauc.xlsx
+++ b/biology/Neurosciences/Ladislav_Tauc/Ladislav_Tauc.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ladislav Tauc est un neuroscientifique français d'origine tchécoslovaque, né le 28 mai 1926 à Pardubice et mort le 2 juin 1999 à Orsay[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ladislav Tauc est un neuroscientifique français d'origine tchécoslovaque, né le 28 mai 1926 à Pardubice et mort le 2 juin 1999 à Orsay.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il émigra en France en 1949 pour travailler à l'Institut Marey avec Alfred Fessard[1], et fut par la suite l'un des enseignants d'Eric Kandel[2],[3].
-En 1972, il devint directeur du laboratoire de Neurobiologie cellulaire du CNRS à Gif-sur-Yvette, rebaptisé laboratoire de Neurobiologie cellulaire et moléculaire en 1984[4],[1].
-Un symposium de neurobiologie tenu de 2000 à 2010 a reçu le nom de "Conférences Ladislav Tauc" en son honneur[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il émigra en France en 1949 pour travailler à l'Institut Marey avec Alfred Fessard, et fut par la suite l'un des enseignants d'Eric Kandel,.
+En 1972, il devint directeur du laboratoire de Neurobiologie cellulaire du CNRS à Gif-sur-Yvette, rebaptisé laboratoire de Neurobiologie cellulaire et moléculaire en 1984,.
+Un symposium de neurobiologie tenu de 2000 à 2010 a reçu le nom de "Conférences Ladislav Tauc" en son honneur.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Recherche</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tauc a continué l'étude des neurones géants de mollusques marins du genre Aplysia entamée dans les années 1930 à Tamaris et fait de nombreuses découvertes sur l'activité neuronale et les potentiels d'action[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tauc a continué l'étude des neurones géants de mollusques marins du genre Aplysia entamée dans les années 1930 à Tamaris et fait de nombreuses découvertes sur l'activité neuronale et les potentiels d'action.
 </t>
         </is>
       </c>
